--- a/pred_ohlcv/54/2019-11-02 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-02 WTC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -426,6 +431,9 @@
         <v>835</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -452,6 +460,9 @@
         <v>834.9833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -478,6 +489,9 @@
         <v>834.9333333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -504,6 +518,9 @@
         <v>834.8333333333334</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -530,6 +547,9 @@
         <v>834.9166666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -556,6 +576,9 @@
         <v>834.9166666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,6 +605,9 @@
         <v>834.9833333333333</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,6 +634,9 @@
         <v>835.0666666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -634,6 +663,9 @@
         <v>835</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,6 +692,9 @@
         <v>835.0666666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,6 +721,9 @@
         <v>835.1333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,6 +750,9 @@
         <v>835.2333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>835.2</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>835.1333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>835.15</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>835.15</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,6 +895,9 @@
         <v>835.4</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>835.6</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +953,9 @@
         <v>835.7666666666667</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,6 +984,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -948,6 +1013,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1042,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1000,6 +1071,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1026,6 +1100,9 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1052,6 +1129,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1078,6 +1158,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1104,6 +1187,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1130,6 +1216,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1156,6 +1245,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1182,6 +1274,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1208,6 +1303,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1234,6 +1332,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1260,6 +1361,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1286,6 +1390,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1364,6 +1477,9 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1442,6 +1564,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1468,6 +1593,9 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1494,6 +1622,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1520,6 +1651,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1546,6 +1680,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1624,6 +1767,9 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1780,6 +1941,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1910,6 +2086,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1936,6 +2115,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1962,6 +2144,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1988,6 +2173,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2014,6 +2202,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2040,6 +2231,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2066,6 +2260,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2092,6 +2289,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2118,6 +2318,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2144,6 +2347,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2170,6 +2376,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2196,6 +2405,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2222,6 +2434,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2248,6 +2463,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2274,6 +2492,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2300,6 +2521,9 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2326,6 +2550,9 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2352,6 +2579,9 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2378,6 +2608,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2404,6 +2637,9 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2430,6 +2666,9 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2456,6 +2695,9 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2482,6 +2724,9 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2508,6 +2753,9 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2534,6 +2782,9 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2560,6 +2811,9 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2586,6 +2840,9 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2612,6 +2869,9 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2638,6 +2898,9 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2664,550 +2927,7 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>875</v>
-      </c>
-      <c r="C89" t="n">
-        <v>875</v>
-      </c>
-      <c r="D89" t="n">
-        <v>875</v>
-      </c>
-      <c r="E89" t="n">
-        <v>874</v>
-      </c>
-      <c r="F89" t="n">
-        <v>331040</v>
-      </c>
-      <c r="G89" t="n">
-        <v>866.5666666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>875</v>
-      </c>
-      <c r="C90" t="n">
-        <v>875</v>
-      </c>
-      <c r="D90" t="n">
-        <v>875</v>
-      </c>
-      <c r="E90" t="n">
-        <v>875</v>
-      </c>
-      <c r="F90" t="n">
-        <v>42500</v>
-      </c>
-      <c r="G90" t="n">
-        <v>866.7166666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>875</v>
-      </c>
-      <c r="C91" t="n">
-        <v>875</v>
-      </c>
-      <c r="D91" t="n">
-        <v>875</v>
-      </c>
-      <c r="E91" t="n">
-        <v>871</v>
-      </c>
-      <c r="F91" t="n">
-        <v>256954.8</v>
-      </c>
-      <c r="G91" t="n">
-        <v>867</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>875</v>
-      </c>
-      <c r="C92" t="n">
-        <v>875</v>
-      </c>
-      <c r="D92" t="n">
-        <v>875</v>
-      </c>
-      <c r="E92" t="n">
-        <v>875</v>
-      </c>
-      <c r="F92" t="n">
-        <v>147200</v>
-      </c>
-      <c r="G92" t="n">
-        <v>867.35</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>877</v>
-      </c>
-      <c r="C93" t="n">
-        <v>875</v>
-      </c>
-      <c r="D93" t="n">
-        <v>877</v>
-      </c>
-      <c r="E93" t="n">
-        <v>875</v>
-      </c>
-      <c r="F93" t="n">
-        <v>14893.92018244014</v>
-      </c>
-      <c r="G93" t="n">
-        <v>867.6333333333333</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>878</v>
-      </c>
-      <c r="C94" t="n">
-        <v>878</v>
-      </c>
-      <c r="D94" t="n">
-        <v>878</v>
-      </c>
-      <c r="E94" t="n">
-        <v>878</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" t="n">
-        <v>868</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>873</v>
-      </c>
-      <c r="C95" t="n">
-        <v>873</v>
-      </c>
-      <c r="D95" t="n">
-        <v>873</v>
-      </c>
-      <c r="E95" t="n">
-        <v>873</v>
-      </c>
-      <c r="F95" t="n">
-        <v>424.656</v>
-      </c>
-      <c r="G95" t="n">
-        <v>868.2833333333333</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>875</v>
-      </c>
-      <c r="C96" t="n">
-        <v>875</v>
-      </c>
-      <c r="D96" t="n">
-        <v>875</v>
-      </c>
-      <c r="E96" t="n">
-        <v>875</v>
-      </c>
-      <c r="F96" t="n">
-        <v>500.1274</v>
-      </c>
-      <c r="G96" t="n">
-        <v>868.55</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>875</v>
-      </c>
-      <c r="C97" t="n">
-        <v>875</v>
-      </c>
-      <c r="D97" t="n">
-        <v>875</v>
-      </c>
-      <c r="E97" t="n">
-        <v>875</v>
-      </c>
-      <c r="F97" t="n">
-        <v>31200</v>
-      </c>
-      <c r="G97" t="n">
-        <v>868.85</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>875</v>
-      </c>
-      <c r="C98" t="n">
-        <v>875</v>
-      </c>
-      <c r="D98" t="n">
-        <v>875</v>
-      </c>
-      <c r="E98" t="n">
-        <v>875</v>
-      </c>
-      <c r="F98" t="n">
-        <v>178750</v>
-      </c>
-      <c r="G98" t="n">
-        <v>869.1833333333333</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>875</v>
-      </c>
-      <c r="C99" t="n">
-        <v>875</v>
-      </c>
-      <c r="D99" t="n">
-        <v>875</v>
-      </c>
-      <c r="E99" t="n">
-        <v>875</v>
-      </c>
-      <c r="F99" t="n">
-        <v>175500</v>
-      </c>
-      <c r="G99" t="n">
-        <v>869.5666666666667</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>875</v>
-      </c>
-      <c r="C100" t="n">
-        <v>875</v>
-      </c>
-      <c r="D100" t="n">
-        <v>875</v>
-      </c>
-      <c r="E100" t="n">
-        <v>875</v>
-      </c>
-      <c r="F100" t="n">
-        <v>211527.4224</v>
-      </c>
-      <c r="G100" t="n">
-        <v>869.85</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>875</v>
-      </c>
-      <c r="C101" t="n">
-        <v>875</v>
-      </c>
-      <c r="D101" t="n">
-        <v>875</v>
-      </c>
-      <c r="E101" t="n">
-        <v>875</v>
-      </c>
-      <c r="F101" t="n">
-        <v>414260</v>
-      </c>
-      <c r="G101" t="n">
-        <v>870.1833333333333</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>875</v>
-      </c>
-      <c r="C102" t="n">
-        <v>875</v>
-      </c>
-      <c r="D102" t="n">
-        <v>875</v>
-      </c>
-      <c r="E102" t="n">
-        <v>875</v>
-      </c>
-      <c r="F102" t="n">
-        <v>415800</v>
-      </c>
-      <c r="G102" t="n">
-        <v>870.4</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>875</v>
-      </c>
-      <c r="C103" t="n">
-        <v>875</v>
-      </c>
-      <c r="D103" t="n">
-        <v>876</v>
-      </c>
-      <c r="E103" t="n">
-        <v>875</v>
-      </c>
-      <c r="F103" t="n">
-        <v>112970</v>
-      </c>
-      <c r="G103" t="n">
-        <v>870.75</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>875</v>
-      </c>
-      <c r="C104" t="n">
-        <v>875</v>
-      </c>
-      <c r="D104" t="n">
-        <v>876</v>
-      </c>
-      <c r="E104" t="n">
-        <v>875</v>
-      </c>
-      <c r="F104" t="n">
-        <v>81986.66190000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>871.1166666666667</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>874</v>
-      </c>
-      <c r="C105" t="n">
-        <v>874</v>
-      </c>
-      <c r="D105" t="n">
-        <v>874</v>
-      </c>
-      <c r="E105" t="n">
-        <v>874</v>
-      </c>
-      <c r="F105" t="n">
-        <v>820.6827</v>
-      </c>
-      <c r="G105" t="n">
-        <v>871.4333333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>874</v>
-      </c>
-      <c r="C106" t="n">
-        <v>874</v>
-      </c>
-      <c r="D106" t="n">
-        <v>874</v>
-      </c>
-      <c r="E106" t="n">
-        <v>874</v>
-      </c>
-      <c r="F106" t="n">
-        <v>570.3</v>
-      </c>
-      <c r="G106" t="n">
-        <v>871.7833333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>874</v>
-      </c>
-      <c r="C107" t="n">
-        <v>874</v>
-      </c>
-      <c r="D107" t="n">
-        <v>874</v>
-      </c>
-      <c r="E107" t="n">
-        <v>873</v>
-      </c>
-      <c r="F107" t="n">
-        <v>71.41370000000001</v>
-      </c>
-      <c r="G107" t="n">
-        <v>872.1333333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>874</v>
-      </c>
-      <c r="C108" t="n">
-        <v>874</v>
-      </c>
-      <c r="D108" t="n">
-        <v>874</v>
-      </c>
-      <c r="E108" t="n">
-        <v>874</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2.074370709382151</v>
-      </c>
-      <c r="G108" t="n">
-        <v>872.4166666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>866</v>
-      </c>
-      <c r="C109" t="n">
-        <v>866</v>
-      </c>
-      <c r="D109" t="n">
-        <v>866</v>
-      </c>
-      <c r="E109" t="n">
-        <v>865</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2329.2719</v>
-      </c>
-      <c r="G109" t="n">
-        <v>872.55</v>
-      </c>
-      <c r="H109" t="n">
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
